--- a/Cmdshop/src/product.xlsx
+++ b/Cmdshop/src/product.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>12999</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>13000</v>
+        <v>1999</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
